--- a/_MHW/MHW Succession Transitions.xlsx
+++ b/_MHW/MHW Succession Transitions.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2040" windowWidth="22280" windowHeight="16660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15680" yWindow="0" windowWidth="22280" windowHeight="16660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MHW" sheetId="1" r:id="rId1"/>
     <sheet name="UM-0711700" sheetId="3" r:id="rId2"/>
     <sheet name="Wies Sort" sheetId="2" r:id="rId3"/>
+    <sheet name="UM 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="89">
   <si>
     <t>Succession Type</t>
   </si>
@@ -285,6 +286,9 @@
   </si>
   <si>
     <t>Late Open 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Late </t>
   </si>
 </sst>
 </file>
@@ -335,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +356,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFB8F"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -401,7 +411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -411,8 +421,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,16 +442,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,10 +788,10 @@
   <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1467,15 +1483,16 @@
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="18">
         <f>C17/$H$17</f>
         <v>0.27784891165172854</v>
       </c>
-      <c r="E29">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18">
         <f>E17/$H$17</f>
         <v>0.35467349551856597</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="18">
         <f>F17/$H$17</f>
         <v>0.36747759282970549</v>
       </c>
@@ -1494,15 +1511,16 @@
       <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="18">
         <f>C14/C17</f>
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <f>E14/E17</f>
         <v>2.5270758122743681E-2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="18">
         <f>F14/F17</f>
         <v>2.4390243902439029E-2</v>
       </c>
@@ -1521,15 +1539,16 @@
       <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="18">
         <f>C15/C17</f>
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18">
         <f>E15/E17</f>
         <v>0.9747292418772564</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="18">
         <f>F15/F17</f>
         <v>0.97560975609756106</v>
       </c>
@@ -2018,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2033,18 +2052,19 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2064,26 +2084,29 @@
       <c r="G1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2100,13 +2123,16 @@
       <c r="G2" s="6">
         <v>300</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="H2" s="6">
+        <v>250</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2117,18 +2143,19 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="Q3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2140,18 +2167,19 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="L4" s="8"/>
+      <c r="I4" s="7"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2160,18 +2188,19 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="Q5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2188,36 +2217,40 @@
       <c r="G6" s="7">
         <v>20</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="H6" s="7">
+        <v>18</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="Q6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="K7" s="5"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="Q7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2226,18 +2259,19 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="L8" s="8"/>
+      <c r="H8" s="6"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2258,18 +2292,22 @@
         <f>1/G2</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="H9" s="8">
+        <f>1/H2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2288,18 +2326,21 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="Q10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2317,20 +2358,23 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="L11" s="8"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="R11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2348,15 +2392,19 @@
         <f>G10</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="S12" s="5"/>
-      <c r="U12" s="8"/>
+      <c r="H12" s="8">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="T12" s="5"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2377,14 +2425,18 @@
         <f>1/G6</f>
         <v>0.05</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="H13" s="8">
+        <f>1/H6</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="R13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2406,16 +2458,20 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="H14" s="8">
+        <f>H9+H11</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="8">
         <f>SUM(C14:G14)</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2436,33 +2492,37 @@
         <v>0.05</v>
       </c>
       <c r="H15" s="8">
+        <f>H12+H13</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="I15" s="8">
         <f>SUM(C15:G15)</f>
         <v>0.18333333333333335</v>
       </c>
-      <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="J16" s="5"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="5"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2484,22 +2544,26 @@
         <v>5.3333333333333337E-2</v>
       </c>
       <c r="H17" s="8">
+        <f>H9+H10+H13</f>
+        <v>5.9555555555555556E-2</v>
+      </c>
+      <c r="I17" s="8">
         <f>SUM(C17:G17)</f>
         <v>0.26833333333333337</v>
       </c>
-      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="S17" s="5"/>
-      <c r="U17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="T17" s="5"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2520,48 +2584,52 @@
         <f>G14+G15</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="H18" s="8">
+        <f>H14+H15</f>
+        <v>5.9555555555555556E-2</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="Q18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="L19" s="8"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="U19" s="8"/>
+      <c r="Q19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" s="8"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="U20" s="8"/>
+      <c r="Q20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2570,25 +2638,26 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="I21" t="s">
+      <c r="H21" s="8"/>
+      <c r="J21" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <f>(D10+D13/2)/D15</f>
         <v>0.5</v>
       </c>
-      <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="U21" s="8"/>
+      <c r="Q21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2600,69 +2669,69 @@
         <f>G10/G15</f>
         <v>0</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f>(D13/2)/D15</f>
         <v>0.5</v>
       </c>
-      <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="Q22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="U23" s="8"/>
+      <c r="Q23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f>G24/G15</f>
         <v>0</v>
       </c>
-      <c r="K24" s="8">
-        <f>J24/G31</f>
+      <c r="L24" s="8">
+        <f>K24/G31</f>
         <v>0</v>
       </c>
-      <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="R24" s="5"/>
-      <c r="T24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="S24" s="5"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2674,96 +2743,100 @@
         <f>G13/G15</f>
         <v>1</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>5</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f>G25/G15</f>
         <v>20</v>
       </c>
-      <c r="K25" s="8">
-        <f>J25/G31</f>
+      <c r="L25" s="8">
+        <f>K25/G31</f>
         <v>21.333333333333332</v>
       </c>
-      <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="T25" s="8"/>
+      <c r="P25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="L26" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="U26" s="8"/>
+      <c r="Q26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="L27" s="8"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="Q27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="J28" s="5"/>
-      <c r="L28" s="8"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="K28" s="5"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="U28" s="8"/>
+      <c r="Q28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C29">
-        <f>C17/$H$17</f>
+        <f>C17/$I$17</f>
         <v>0.26708074534161491</v>
       </c>
       <c r="D29">
-        <f>D17/$H$17</f>
+        <f>D17/$I$17</f>
         <v>0.26708074534161491</v>
       </c>
       <c r="F29">
-        <f>F17/$H$17</f>
+        <f>F17/$I$17</f>
         <v>0.26708074534161491</v>
       </c>
       <c r="G29">
-        <f>G17/$H$17</f>
+        <f>G17/$I$17</f>
         <v>0.19875776397515527</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="H29">
+        <f>H17/$I$17</f>
+        <v>0.2219461697722567</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="Q29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2783,18 +2856,22 @@
         <f>G14/G17</f>
         <v>6.25E-2</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="H30">
+        <f>H14/H17</f>
+        <v>6.7164179104477612E-2</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="U30" s="8"/>
+      <c r="Q30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2814,47 +2891,52 @@
         <f>G15/G17</f>
         <v>0.9375</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="H31">
+        <f>H15/H17</f>
+        <v>0.93283582089552231</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="6"/>
-      <c r="U31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="6"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="6"/>
-      <c r="U32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="6"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" s="8"/>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2874,20 +2956,20 @@
         <f>G9/G17</f>
         <v>6.25E-2</v>
       </c>
-      <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
-      <c r="U34" s="8"/>
+      <c r="R34" s="11"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" s="8"/>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="12" t="s">
         <v>2</v>
       </c>
@@ -2899,15 +2981,15 @@
         <f>G10/G17</f>
         <v>0</v>
       </c>
-      <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2915,13 +2997,13 @@
         <f>D31</f>
         <v>0.93023255813953487</v>
       </c>
-      <c r="H36">
-        <f>H17/$H$17</f>
+      <c r="I36">
+        <f>I17/$I$17</f>
         <v>1</v>
       </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2929,13 +3011,13 @@
         <f>F13/F17</f>
         <v>0.93023255813953487</v>
       </c>
-      <c r="H37">
-        <f>H14/$H$14</f>
+      <c r="I37">
+        <f>I14/$I$14</f>
         <v>1</v>
       </c>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2943,13 +3025,13 @@
         <f>G13/G17</f>
         <v>0.9375</v>
       </c>
-      <c r="H38">
-        <f>H15/$H$15</f>
+      <c r="I38">
+        <f>I15/$I$15</f>
         <v>1</v>
       </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2969,15 +3051,15 @@
         <f>SUM(G34:G38)</f>
         <v>1</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -2994,11 +3076,14 @@
         <v>0.1</v>
       </c>
       <c r="H42">
-        <f>SUM(C42:G42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+        <v>0.6</v>
+      </c>
+      <c r="I42">
+        <f>SUM(C42:H42)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
@@ -3019,12 +3104,16 @@
         <v>5.333333333333334E-3</v>
       </c>
       <c r="H44">
+        <f>H17*H42</f>
+        <v>3.5733333333333332E-2</v>
+      </c>
+      <c r="I44">
         <f>SUM(C44:G44)</f>
         <v>6.9833333333333331E-2</v>
       </c>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3045,12 +3134,16 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="H45">
+        <f>H14*H42</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="I45">
         <f>SUM(C45:G45)</f>
         <v>1.1500000000000002E-2</v>
       </c>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="12" t="s">
         <v>31</v>
       </c>
@@ -3071,11 +3164,15 @@
         <v>5.000000000000001E-3</v>
       </c>
       <c r="H46">
+        <f>H15*H42</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I46">
         <f>SUM(C46:G46)</f>
         <v>5.8333333333333334E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49" s="5" t="s">
         <v>32</v>
       </c>
@@ -3091,17 +3188,17 @@
       <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>37</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>33</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -3120,20 +3217,20 @@
         <f>F55*D50</f>
         <v>1.5822067819651084E-3</v>
       </c>
-      <c r="H50">
-        <f>H45</f>
+      <c r="I50">
+        <f>I45</f>
         <v>1.1500000000000002E-2</v>
       </c>
-      <c r="I50">
-        <f>1/H50</f>
+      <c r="J50">
+        <f>1/I50</f>
         <v>86.956521739130423</v>
       </c>
-      <c r="J50">
-        <f>H50/H55*100</f>
+      <c r="K50">
+        <f>I50/I55*100</f>
         <v>16.467780429594274</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -3153,19 +3250,19 @@
         <v>1.551090048586461E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -3184,20 +3281,20 @@
         <f>F55*D54</f>
         <v>5.2740226065503611E-2</v>
       </c>
-      <c r="H54">
-        <f>H46</f>
+      <c r="I54">
+        <f>I46</f>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="I54">
-        <f>1/H54</f>
+      <c r="J54">
+        <f>1/I54</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="J54">
-        <f>H54/H55*100</f>
+      <c r="K54">
+        <f>I54/I55*100</f>
         <v>83.532219570405729</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3213,111 +3310,120 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <f>H44</f>
+        <f>I44</f>
         <v>6.9833333333333331E-2</v>
       </c>
-      <c r="H55">
-        <f>H50+H54</f>
+      <c r="I55">
+        <f>I50+I54</f>
         <v>6.9833333333333331E-2</v>
       </c>
-      <c r="I55">
-        <f>1/H55</f>
+      <c r="J55">
+        <f>1/I55</f>
         <v>14.319809069212411</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:9">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:9">
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="I69" s="11"/>
+    </row>
+    <row r="72" spans="2:9">
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="2:9">
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="2:9">
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="2:9">
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="2:9">
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="2:9">
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="2:9">
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3724,4 +3830,1199 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>200</v>
+      </c>
+      <c r="D2" s="6">
+        <v>200</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>250</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>18</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <f>1/C2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <f>1/D2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <f>1/F2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="R12" s="5"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <f>1/C6</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <f>1/D6</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <f>1/F6</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C9+C13</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <f>D9</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <f>F9+F11</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(C14:F14)</f>
+        <v>8.0666666666666678E-2</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D13</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <f>F12+F13</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(C15:F15)</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C9+C10+C13</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <f>D9+D10+D13</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <f>F9+F10+F13</f>
+        <v>5.9555555555555556E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <f>SUM(C17:F17)</f>
+        <v>0.2028888888888889</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="R17" s="5"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C14+C15</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D14+D15</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <f>F14+F15</f>
+        <v>5.9555555555555556E-2</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="5">
+        <f>(D10+D13/2)/D15</f>
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f>(D13/2)/D15</f>
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="8" t="e">
+        <f>I24/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="8" t="e">
+        <f>I25/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="I28" s="5"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="18">
+        <f>C17/$G$17</f>
+        <v>0.35323110624315446</v>
+      </c>
+      <c r="D29" s="18">
+        <f>D17/$G$17</f>
+        <v>0.35323110624315446</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18">
+        <f>F17/$G$17</f>
+        <v>0.29353778751369114</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="18">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <f>D14/D17</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18">
+        <f>F14/F17</f>
+        <v>6.7164179104477612E-2</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="18">
+        <f>C15/C17</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="18">
+        <f>D15/D17</f>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18">
+        <f>F15/F17</f>
+        <v>0.93283582089552231</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="6"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="6"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <f>C30+C31</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>D14/D17</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f>D31</f>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="G36">
+        <f>G17/$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37">
+        <f>G14/$G$14</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38">
+        <f>G15/$G$15</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C34:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D34:D38)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>0.1</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="F42">
+        <v>0.6</v>
+      </c>
+      <c r="G42">
+        <f>SUM(C42:F42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <f>C17*C42</f>
+        <v>7.1666666666666675E-3</v>
+      </c>
+      <c r="D44">
+        <f>D17*D42</f>
+        <v>2.1500000000000002E-2</v>
+      </c>
+      <c r="F44">
+        <f>F17*F42</f>
+        <v>3.5733333333333332E-2</v>
+      </c>
+      <c r="G44">
+        <f>SUM(C44:F44)</f>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <f>C14*C42</f>
+        <v>7.1666666666666675E-3</v>
+      </c>
+      <c r="D45">
+        <f>D14*D42</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="F45">
+        <f>F14*F42</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G45">
+        <f>SUM(C45:F45)</f>
+        <v>1.1066666666666667E-2</v>
+      </c>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <f>C15*C42</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>D15*D42</f>
+        <v>0.02</v>
+      </c>
+      <c r="F46">
+        <f>F15*F42</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G46">
+        <f>SUM(C46:F46)</f>
+        <v>5.333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="8">
+        <f>1/C50</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="C50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D50">
+        <f>C50/C55</f>
+        <v>2.2656899025753342E-2</v>
+      </c>
+      <c r="F50">
+        <f>F55*D50</f>
+        <v>1.4591042972585152E-3</v>
+      </c>
+      <c r="I50">
+        <f>G45</f>
+        <v>1.1066666666666667E-2</v>
+      </c>
+      <c r="J50">
+        <f>1/I50</f>
+        <v>90.361445783132524</v>
+      </c>
+      <c r="K50">
+        <f>I50/I55*100</f>
+        <v>17.184265010351968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="8">
+        <f>1/C51</f>
+        <v>34.002040122407344</v>
+      </c>
+      <c r="C51">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="D51">
+        <f>C51/C55</f>
+        <v>0.22211313344913525</v>
+      </c>
+      <c r="F51">
+        <f>F55*D51</f>
+        <v>1.4304085794124309E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="8">
+        <f>1/C54</f>
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>0.1</v>
+      </c>
+      <c r="D54">
+        <f>C54/C55</f>
+        <v>0.7552299675251114</v>
+      </c>
+      <c r="F54">
+        <f>F55*D54</f>
+        <v>4.8636809908617171E-2</v>
+      </c>
+      <c r="I54">
+        <f>G46</f>
+        <v>5.333333333333333E-2</v>
+      </c>
+      <c r="J54">
+        <f>1/I54</f>
+        <v>18.75</v>
+      </c>
+      <c r="K54">
+        <f>I54/I55*100</f>
+        <v>82.815734989648021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="8">
+        <f>1/C55</f>
+        <v>7.5522996752511142</v>
+      </c>
+      <c r="C55">
+        <v>0.13241</v>
+      </c>
+      <c r="D55">
+        <f>D50+D51+D54</f>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f>G44</f>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I55">
+        <f>I50+I54</f>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="J55">
+        <f>1/I55</f>
+        <v>15.527950310559007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/_MHW/MHW Succession Transitions.xlsx
+++ b/_MHW/MHW Succession Transitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="0" windowWidth="22280" windowHeight="16660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="16860" yWindow="0" windowWidth="21420" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MHW" sheetId="1" r:id="rId1"/>
-    <sheet name="UM-0711700" sheetId="3" r:id="rId2"/>
-    <sheet name="Wies Sort" sheetId="2" r:id="rId3"/>
-    <sheet name="UM 2" sheetId="4" r:id="rId4"/>
+    <sheet name="UM 2" sheetId="4" r:id="rId2"/>
+    <sheet name="UM-0711700" sheetId="3" r:id="rId3"/>
+    <sheet name="Wies Sort" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -787,11 +787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2037,9 +2037,1204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>200</v>
+      </c>
+      <c r="D2" s="6">
+        <v>200</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>250</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>18</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <f>1/C2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <f>1/D2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <f>1/F2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="R12" s="5"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <f>1/C6</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <f>1/D6</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <f>1/F6</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C9+C13</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <f>D9</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <f>F9+F11</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(C14:F14)</f>
+        <v>8.0666666666666678E-2</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D13</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <f>F12+F13</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(C15:F15)</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C9+C10+C13</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <f>D9+D10+D13</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <f>F9+F10+F13</f>
+        <v>5.9555555555555556E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <f>SUM(C17:F17)</f>
+        <v>0.2028888888888889</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="R17" s="5"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C14+C15</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D14+D15</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <f>F14+F15</f>
+        <v>5.9555555555555556E-2</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="5">
+        <f>(D10+D13/2)/D15</f>
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f>(D13/2)/D15</f>
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="8" t="e">
+        <f>I24/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="8" t="e">
+        <f>I25/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="I28" s="5"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="18">
+        <f>C17/$G$17</f>
+        <v>0.35323110624315446</v>
+      </c>
+      <c r="D29" s="18">
+        <f>D17/$G$17</f>
+        <v>0.35323110624315446</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18">
+        <f>F17/$G$17</f>
+        <v>0.29353778751369114</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="18">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <f>D14/D17</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18">
+        <f>F14/F17</f>
+        <v>6.7164179104477612E-2</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="18">
+        <f>C15/C17</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="18">
+        <f>D15/D17</f>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18">
+        <f>F15/F17</f>
+        <v>0.93283582089552231</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="6"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="6"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <f>C30+C31</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>D14/D17</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f>D31</f>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="G36">
+        <f>G17/$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37">
+        <f>G14/$G$14</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38">
+        <f>G15/$G$15</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C34:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D34:D38)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>0.1</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="F42">
+        <v>0.6</v>
+      </c>
+      <c r="G42">
+        <f>SUM(C42:F42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <f>C17*C42</f>
+        <v>7.1666666666666675E-3</v>
+      </c>
+      <c r="D44">
+        <f>D17*D42</f>
+        <v>2.1500000000000002E-2</v>
+      </c>
+      <c r="F44">
+        <f>F17*F42</f>
+        <v>3.5733333333333332E-2</v>
+      </c>
+      <c r="G44">
+        <f>SUM(C44:F44)</f>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <f>C14*C42</f>
+        <v>7.1666666666666675E-3</v>
+      </c>
+      <c r="D45">
+        <f>D14*D42</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="F45">
+        <f>F14*F42</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G45">
+        <f>SUM(C45:F45)</f>
+        <v>1.1066666666666667E-2</v>
+      </c>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <f>C15*C42</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>D15*D42</f>
+        <v>0.02</v>
+      </c>
+      <c r="F46">
+        <f>F15*F42</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G46">
+        <f>SUM(C46:F46)</f>
+        <v>5.333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="8">
+        <f>1/C50</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="C50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D50">
+        <f>C50/C55</f>
+        <v>2.2656899025753342E-2</v>
+      </c>
+      <c r="F50">
+        <f>F55*D50</f>
+        <v>1.4591042972585152E-3</v>
+      </c>
+      <c r="I50">
+        <f>G45</f>
+        <v>1.1066666666666667E-2</v>
+      </c>
+      <c r="J50">
+        <f>1/I50</f>
+        <v>90.361445783132524</v>
+      </c>
+      <c r="K50">
+        <f>I50/I55*100</f>
+        <v>17.184265010351968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="8">
+        <f>1/C51</f>
+        <v>34.002040122407344</v>
+      </c>
+      <c r="C51">
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="D51">
+        <f>C51/C55</f>
+        <v>0.22211313344913525</v>
+      </c>
+      <c r="F51">
+        <f>F55*D51</f>
+        <v>1.4304085794124309E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="8">
+        <f>1/C54</f>
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>0.1</v>
+      </c>
+      <c r="D54">
+        <f>C54/C55</f>
+        <v>0.7552299675251114</v>
+      </c>
+      <c r="F54">
+        <f>F55*D54</f>
+        <v>4.8636809908617171E-2</v>
+      </c>
+      <c r="I54">
+        <f>G46</f>
+        <v>5.333333333333333E-2</v>
+      </c>
+      <c r="J54">
+        <f>1/I54</f>
+        <v>18.75</v>
+      </c>
+      <c r="K54">
+        <f>I54/I55*100</f>
+        <v>82.815734989648021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="8">
+        <f>1/C55</f>
+        <v>7.5522996752511142</v>
+      </c>
+      <c r="C55">
+        <v>0.13241</v>
+      </c>
+      <c r="D55">
+        <f>D50+D51+D54</f>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f>G44</f>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I55">
+        <f>I50+I54</f>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="J55">
+        <f>1/I55</f>
+        <v>15.527950310559007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -3432,7 +4627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
@@ -3830,1199 +5025,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X78"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7">
-        <v>200</v>
-      </c>
-      <c r="D2" s="6">
-        <v>200</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <v>250</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>18</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8">
-        <f>1/C2</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="8">
-        <f>1/D2</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <f>1/F2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8">
-        <f>C3</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8">
-        <f>C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <f>D10</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <f>F10</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="R12" s="5"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <f>1/C6</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <f>1/D6</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <f>1/F6</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8">
-        <f>C9+C13</f>
-        <v>7.166666666666667E-2</v>
-      </c>
-      <c r="D14" s="8">
-        <f>D9</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <f>F9+F11</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(C14:F14)</f>
-        <v>8.0666666666666678E-2</v>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <f>D13</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <f>F12+F13</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="G15" s="8">
-        <f>SUM(C15:F15)</f>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="I16" s="5"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8">
-        <f>C9+C10+C13</f>
-        <v>7.166666666666667E-2</v>
-      </c>
-      <c r="D17" s="8">
-        <f>D9+D10+D13</f>
-        <v>7.166666666666667E-2</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <f>F9+F10+F13</f>
-        <v>5.9555555555555556E-2</v>
-      </c>
-      <c r="G17" s="8">
-        <f>SUM(C17:F17)</f>
-        <v>0.2028888888888889</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="R17" s="5"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8">
-        <f>C14+C15</f>
-        <v>7.166666666666667E-2</v>
-      </c>
-      <c r="D18" s="8">
-        <f>D14+D15</f>
-        <v>7.166666666666667E-2</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
-        <f>F14+F15</f>
-        <v>5.9555555555555556E-2</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="H21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="5">
-        <f>(D10+D13/2)/D15</f>
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <f>(D13/2)/D15</f>
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" s="8" t="e">
-        <f>I24/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="Q24" s="5"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="8" t="e">
-        <f>I25/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="I28" s="5"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="18">
-        <f>C17/$G$17</f>
-        <v>0.35323110624315446</v>
-      </c>
-      <c r="D29" s="18">
-        <f>D17/$G$17</f>
-        <v>0.35323110624315446</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18">
-        <f>F17/$G$17</f>
-        <v>0.29353778751369114</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="18">
-        <f>C14/C17</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="18">
-        <f>D14/D17</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18">
-        <f>F14/F17</f>
-        <v>6.7164179104477612E-2</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="18">
-        <f>C15/C17</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="18">
-        <f>D15/D17</f>
-        <v>0.93023255813953487</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18">
-        <f>F15/F17</f>
-        <v>0.93283582089552231</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="6"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="6"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34">
-        <f>C30+C31</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>D14/D17</f>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <f>D31</f>
-        <v>0.93023255813953487</v>
-      </c>
-      <c r="G36">
-        <f>G17/$G$17</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37">
-        <f>G14/$G$14</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38">
-        <f>G15/$G$15</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <f>SUM(C34:C38)</f>
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <f>SUM(D34:D38)</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42">
-        <v>0.1</v>
-      </c>
-      <c r="D42">
-        <v>0.3</v>
-      </c>
-      <c r="F42">
-        <v>0.6</v>
-      </c>
-      <c r="G42">
-        <f>SUM(C42:F42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <f>C17*C42</f>
-        <v>7.1666666666666675E-3</v>
-      </c>
-      <c r="D44">
-        <f>D17*D42</f>
-        <v>2.1500000000000002E-2</v>
-      </c>
-      <c r="F44">
-        <f>F17*F42</f>
-        <v>3.5733333333333332E-2</v>
-      </c>
-      <c r="G44">
-        <f>SUM(C44:F44)</f>
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="P44" s="6"/>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45">
-        <f>C14*C42</f>
-        <v>7.1666666666666675E-3</v>
-      </c>
-      <c r="D45">
-        <f>D14*D42</f>
-        <v>1.5E-3</v>
-      </c>
-      <c r="F45">
-        <f>F14*F42</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="G45">
-        <f>SUM(C45:F45)</f>
-        <v>1.1066666666666667E-2</v>
-      </c>
-      <c r="P45" s="6"/>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46">
-        <f>C15*C42</f>
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <f>D15*D42</f>
-        <v>0.02</v>
-      </c>
-      <c r="F46">
-        <f>F15*F42</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G46">
-        <f>SUM(C46:F46)</f>
-        <v>5.333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="I49" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="8">
-        <f>1/C50</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="C50">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D50">
-        <f>C50/C55</f>
-        <v>2.2656899025753342E-2</v>
-      </c>
-      <c r="F50">
-        <f>F55*D50</f>
-        <v>1.4591042972585152E-3</v>
-      </c>
-      <c r="I50">
-        <f>G45</f>
-        <v>1.1066666666666667E-2</v>
-      </c>
-      <c r="J50">
-        <f>1/I50</f>
-        <v>90.361445783132524</v>
-      </c>
-      <c r="K50">
-        <f>I50/I55*100</f>
-        <v>17.184265010351968</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="8">
-        <f>1/C51</f>
-        <v>34.002040122407344</v>
-      </c>
-      <c r="C51">
-        <v>2.9409999999999999E-2</v>
-      </c>
-      <c r="D51">
-        <f>C51/C55</f>
-        <v>0.22211313344913525</v>
-      </c>
-      <c r="F51">
-        <f>F55*D51</f>
-        <v>1.4304085794124309E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="8">
-        <f>1/C54</f>
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>0.1</v>
-      </c>
-      <c r="D54">
-        <f>C54/C55</f>
-        <v>0.7552299675251114</v>
-      </c>
-      <c r="F54">
-        <f>F55*D54</f>
-        <v>4.8636809908617171E-2</v>
-      </c>
-      <c r="I54">
-        <f>G46</f>
-        <v>5.333333333333333E-2</v>
-      </c>
-      <c r="J54">
-        <f>1/I54</f>
-        <v>18.75</v>
-      </c>
-      <c r="K54">
-        <f>I54/I55*100</f>
-        <v>82.815734989648021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="8">
-        <f>1/C55</f>
-        <v>7.5522996752511142</v>
-      </c>
-      <c r="C55">
-        <v>0.13241</v>
-      </c>
-      <c r="D55">
-        <f>D50+D51+D54</f>
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <f>G44</f>
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="I55">
-        <f>I50+I54</f>
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="J55">
-        <f>1/I55</f>
-        <v>15.527950310559007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="K62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>